--- a/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6520,7 +6520,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en C.Valenciana (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1317</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>878</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1348</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>5,0%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>2665</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4581</t>
+          <t>5376</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,76%</t>
         </is>
       </c>
     </row>
@@ -849,32 +849,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61452</t>
+          <t>74624</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59951</t>
+          <t>72595</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>62279</t>
+          <t>75856</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,9%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -884,32 +884,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61145</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>59367</t>
+          <t>63957</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>62004</t>
+          <t>65781</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>95,0%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>122597</t>
+          <t>139740</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>120681</t>
+          <t>137600</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>123771</t>
+          <t>141180</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,87%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,81%</t>
+          <t>98,74%</t>
         </is>
       </c>
     </row>
@@ -962,17 +962,17 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>62769</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -997,17 +997,17 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>62493</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>125262</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1079,67 +1079,67 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1039</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>388</t>
+          <t>579</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2137</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>1,63%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,78%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1881</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1046</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>3395</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
           <t>1,51%</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,56%</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3,1%</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>981</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>3587</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>3,14%</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>1,55%</t>
-        </is>
-      </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1149,32 +1149,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1790</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4807</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -1192,69 +1192,69 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67869</t>
+          <t>73273</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>66771</t>
+          <t>72026</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68520</t>
+          <t>73909</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>98,37%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>96,69%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>99,22%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>67260</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>65746</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>68095</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>97,28%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>95,09%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>98,49%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>96,9%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>99,44%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>360</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>61353</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>59757</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>62363</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>96,86%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>94,34%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>98,45%</t>
-        </is>
-      </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>747</t>
@@ -1262,32 +1262,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>129222</t>
+          <t>140533</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127445</t>
+          <t>138838</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>130462</t>
+          <t>141706</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,71%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,65%</t>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>68908</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1340,17 +1340,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>63344</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1375,17 +1375,17 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>132252</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1422,32 +1422,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1829</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>892</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3303</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1457,32 +1457,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>4361</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2969</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6680</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>3,04%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1492,32 +1492,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6464</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4622</t>
+          <t>4495</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>9063</t>
+          <t>8813</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -1535,32 +1535,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93143</t>
+          <t>102125</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>91669</t>
+          <t>100477</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>94080</t>
+          <t>103082</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,07%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,52%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>99,06%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1570,32 +1570,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93173</t>
+          <t>106679</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>91128</t>
+          <t>104652</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>94839</t>
+          <t>108152</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>95,26%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>93,17%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,96%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1605,32 +1605,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>186316</t>
+          <t>208804</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>183717</t>
+          <t>206406</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>188158</t>
+          <t>210724</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>96,65%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,3%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,6%</t>
+          <t>97,91%</t>
         </is>
       </c>
     </row>
@@ -1648,17 +1648,17 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>94972</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1683,17 +1683,17 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>97808</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1718,17 +1718,17 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>192780</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1765,32 +1765,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7502</t>
+          <t>6996</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1800,32 +1800,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6948</t>
+          <t>6792</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4949</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9690</t>
+          <t>9304</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1835,32 +1835,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>12177</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9116</t>
+          <t>9289</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15271</t>
+          <t>15054</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
@@ -1878,32 +1878,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>132971</t>
+          <t>139378</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>130698</t>
+          <t>137422</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>134724</t>
+          <t>141094</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,22%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>94,57%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,48%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1913,32 +1913,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>131142</t>
+          <t>145664</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>128400</t>
+          <t>143152</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>133141</t>
+          <t>147445</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>94,97%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>92,98%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,42%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1948,32 +1948,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>264114</t>
+          <t>285042</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>261020</t>
+          <t>281820</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>267175</t>
+          <t>287585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>95,59%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,47%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,7%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -1991,17 +1991,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>138200</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2026,17 +2026,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>138090</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2061,17 +2061,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>276291</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2108,32 +2108,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8964</t>
+          <t>8407</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6359</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12162</t>
+          <t>11794</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>7,1%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2143,32 +2143,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11920</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9290</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15216</t>
+          <t>15330</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2178,32 +2178,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>20885</t>
+          <t>20261</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>17095</t>
+          <t>16607</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>25720</t>
+          <t>24412</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -2221,32 +2221,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>117243</t>
+          <t>120858</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>114045</t>
+          <t>117471</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>119848</t>
+          <t>122935</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>92,9%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>94,96%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2256,32 +2256,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>134785</t>
+          <t>140168</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>131489</t>
+          <t>136692</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>137415</t>
+          <t>142819</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>91,87%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,63%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2291,32 +2291,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>252026</t>
+          <t>261026</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>247191</t>
+          <t>256875</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>255816</t>
+          <t>264680</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,35%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,1%</t>
         </is>
       </c>
     </row>
@@ -2334,17 +2334,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>126207</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2369,17 +2369,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>146705</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2404,17 +2404,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>272911</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2451,32 +2451,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4670</t>
+          <t>4380</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7109</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,62%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2486,32 +2486,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>8852</t>
+          <t>9909</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>6573</t>
+          <t>7484</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>11273</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2521,32 +2521,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>10827</t>
+          <t>11512</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>17860</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -2564,32 +2564,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>102701</t>
+          <t>99959</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>100262</t>
+          <t>97675</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>104297</t>
+          <t>101490</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,38%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,14%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2599,32 +2599,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106182</t>
+          <t>106013</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103761</t>
+          <t>103034</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>108461</t>
+          <t>108438</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,3%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>94,29%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2634,32 +2634,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>208882</t>
+          <t>205972</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>205630</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>211577</t>
+          <t>208749</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,92%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>92,46%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,77%</t>
         </is>
       </c>
     </row>
@@ -2677,17 +2677,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>107371</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2712,17 +2712,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115034</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2747,17 +2747,17 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>222404</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2794,32 +2794,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3097</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7229</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,22%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,52%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2829,32 +2829,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>17506</t>
+          <t>18056</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>14407</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21006</t>
+          <t>21893</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,13%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>10,8%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>15,75%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2864,32 +2864,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>22226</t>
+          <t>21792</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>18946</t>
+          <t>18266</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>26373</t>
+          <t>25522</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -2907,32 +2907,32 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>91403</t>
+          <t>85350</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>88894</t>
+          <t>83594</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>93026</t>
+          <t>86758</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,48%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2942,32 +2942,32 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>115854</t>
+          <t>113771</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>112354</t>
+          <t>109934</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>118953</t>
+          <t>116662</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>86,87%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>84,25%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>89,2%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2977,32 +2977,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>207257</t>
+          <t>199121</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>203110</t>
+          <t>195391</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>210537</t>
+          <t>202647</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,51%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>91,73%</t>
         </is>
       </c>
     </row>
@@ -3020,17 +3020,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>96123</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3055,17 +3055,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>133360</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3090,17 +3090,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>229483</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3137,32 +3137,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>27769</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>23187</t>
+          <t>22825</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>33112</t>
+          <t>31421</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3172,32 +3172,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53199</t>
+          <t>53978</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>47582</t>
+          <t>48042</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>59832</t>
+          <t>60335</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,03%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3207,32 +3207,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>80968</t>
+          <t>80920</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>73905</t>
+          <t>73612</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>88941</t>
+          <t>88659</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -3250,32 +3250,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>666781</t>
+          <t>695568</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>661438</t>
+          <t>691089</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>671363</t>
+          <t>699685</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,23%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3285,32 +3285,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>703634</t>
+          <t>744672</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>697001</t>
+          <t>738315</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>709251</t>
+          <t>750608</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,09%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,71%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3320,32 +3320,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1370415</t>
+          <t>1440240</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1362442</t>
+          <t>1432501</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1377478</t>
+          <t>1447548</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,42%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>93,87%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>94,91%</t>
+          <t>95,16%</t>
         </is>
       </c>
     </row>
@@ -3363,17 +3363,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>694550</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3398,17 +3398,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>756833</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1451383</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3728,12 +3728,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1812</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>20828</t>
+          <t>21397</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6119</t>
+          <t>5989</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>27824</t>
+          <t>26985</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -3778,12 +3778,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>15,09%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -3798,12 +3798,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10689</t>
+          <t>10833</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>39735</t>
+          <t>40181</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>9,55%</t>
         </is>
       </c>
     </row>
@@ -3841,12 +3841,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>215408</t>
+          <t>214839</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234424</t>
+          <t>234292</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -3856,12 +3856,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,18%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -3876,12 +3876,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>156529</t>
+          <t>157368</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178234</t>
+          <t>178364</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -3891,12 +3891,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>84,91%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -3911,12 +3911,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>380854</t>
+          <t>380408</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>409900</t>
+          <t>409756</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -3926,12 +3926,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,55%</t>
+          <t>90,45%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>97,42%</t>
         </is>
       </c>
     </row>
@@ -4071,12 +4071,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>488</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9348</t>
+          <t>10209</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4086,12 +4086,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4106,12 +4106,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8946</t>
+          <t>8853</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34232</t>
+          <t>34501</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4121,12 +4121,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>10,97%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>13397</t>
+          <t>12911</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>35563</t>
+          <t>36554</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4156,12 +4156,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,72%</t>
         </is>
       </c>
     </row>
@@ -4184,12 +4184,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>220020</t>
+          <t>219159</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228927</t>
+          <t>228880</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4199,12 +4199,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,92%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,81%</t>
+          <t>99,79%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4219,12 +4219,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>280196</t>
+          <t>279927</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>305482</t>
+          <t>305575</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4234,12 +4234,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,15%</t>
+          <t>97,18%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4254,12 +4254,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>508233</t>
+          <t>507242</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>530399</t>
+          <t>530885</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4269,12 +4269,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,54%</t>
+          <t>97,63%</t>
         </is>
       </c>
     </row>
@@ -4414,12 +4414,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9503</t>
+          <t>9868</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27499</t>
+          <t>27273</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -4429,12 +4429,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -4449,12 +4449,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17217</t>
+          <t>16708</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>32032</t>
+          <t>31530</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -4464,12 +4464,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -4484,12 +4484,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29854</t>
+          <t>29572</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>53151</t>
+          <t>52765</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -4499,12 +4499,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,34%</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4527,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>283270</t>
+          <t>283496</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>301266</t>
+          <t>300901</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4542,12 +4542,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>91,22%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,94%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4562,12 +4562,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>289810</t>
+          <t>290312</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>304625</t>
+          <t>305134</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -4577,12 +4577,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,2%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -4597,12 +4597,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>579459</t>
+          <t>579845</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>602756</t>
+          <t>603038</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -4612,12 +4612,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>91,66%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,33%</t>
         </is>
       </c>
     </row>
@@ -4757,12 +4757,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10304</t>
+          <t>11136</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60202</t>
+          <t>58187</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,6%</t>
+          <t>9,28%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -4792,12 +4792,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41587</t>
+          <t>41898</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63400</t>
+          <t>63196</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -4807,12 +4807,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -4827,12 +4827,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>41253</t>
+          <t>43099</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>116883</t>
+          <t>118220</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -4842,12 +4842,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,33%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -4870,12 +4870,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>566962</t>
+          <t>568977</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>616860</t>
+          <t>616028</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -4885,12 +4885,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,4%</t>
+          <t>90,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,36%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -4905,12 +4905,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>341402</t>
+          <t>341606</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>363215</t>
+          <t>362904</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -4920,12 +4920,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>84,39%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,73%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -4940,12 +4940,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>915083</t>
+          <t>913746</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>990713</t>
+          <t>988867</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -4955,12 +4955,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,67%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,0%</t>
+          <t>95,82%</t>
         </is>
       </c>
     </row>
@@ -5100,12 +5100,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23943</t>
+          <t>24193</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>44269</t>
+          <t>45212</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5115,12 +5115,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,09%</t>
+          <t>13,36%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5135,12 +5135,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48804</t>
+          <t>48602</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>69662</t>
+          <t>70153</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5150,12 +5150,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,85%</t>
+          <t>22,0%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5170,12 +5170,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>78880</t>
+          <t>78272</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>107654</t>
+          <t>108552</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5185,12 +5185,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,91%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,38%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -5213,12 +5213,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>294029</t>
+          <t>293086</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>314355</t>
+          <t>314105</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -5228,12 +5228,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,91%</t>
+          <t>86,64%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,85%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>249232</t>
+          <t>248741</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>270090</t>
+          <t>270292</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -5263,12 +5263,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,15%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>84,7%</t>
+          <t>84,76%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -5283,12 +5283,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>549538</t>
+          <t>548640</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>578312</t>
+          <t>578920</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -5298,12 +5298,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,62%</t>
+          <t>83,48%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,0%</t>
+          <t>88,09%</t>
         </is>
       </c>
     </row>
@@ -5443,12 +5443,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4245</t>
+          <t>3886</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13080</t>
+          <t>13157</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5458,12 +5458,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5478,12 +5478,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>13362</t>
+          <t>8578</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>75806</t>
+          <t>75762</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5493,12 +5493,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5513,12 +5513,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>22046</t>
+          <t>17623</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>72440</t>
+          <t>73151</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5528,12 +5528,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>11,08%</t>
         </is>
       </c>
     </row>
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>194286</t>
+          <t>194209</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>203121</t>
+          <t>203480</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5571,12 +5571,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,69%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,95%</t>
+          <t>98,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -5591,12 +5591,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>376836</t>
+          <t>376880</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>439280</t>
+          <t>444064</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -5606,12 +5606,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,25%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,05%</t>
+          <t>98,1%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -5626,12 +5626,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>587568</t>
+          <t>586857</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>637962</t>
+          <t>642385</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -5641,12 +5641,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>89,02%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8936</t>
+          <t>8961</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20707</t>
+          <t>20697</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -5801,7 +5801,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -5821,12 +5821,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>29378</t>
+          <t>29934</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>46886</t>
+          <t>47248</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -5836,12 +5836,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>19,98%</t>
+          <t>20,13%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -5856,12 +5856,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>41953</t>
+          <t>42097</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>62950</t>
+          <t>62032</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -5871,12 +5871,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,89%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,05%</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>131068</t>
+          <t>131078</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>142839</t>
+          <t>142814</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,11%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -5934,12 +5934,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>187824</t>
+          <t>187462</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>205332</t>
+          <t>204776</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -5949,12 +5949,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>80,02%</t>
+          <t>79,87%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,48%</t>
+          <t>87,25%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -5969,12 +5969,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>323535</t>
+          <t>324453</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>344532</t>
+          <t>344388</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -5984,12 +5984,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,71%</t>
+          <t>83,95%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,15%</t>
+          <t>89,11%</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>76935</t>
+          <t>76267</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>143699</t>
+          <t>142202</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6144,12 +6144,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6164,12 +6164,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>177983</t>
+          <t>173172</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>284991</t>
+          <t>282781</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6179,12 +6179,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,67%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6199,12 +6199,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>285686</t>
+          <t>291138</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>417376</t>
+          <t>413151</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6214,12 +6214,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -6242,12 +6242,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1957276</t>
+          <t>1958773</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2024040</t>
+          <t>2024708</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6257,12 +6257,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,34%</t>
+          <t>96,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6277,12 +6277,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1946680</t>
+          <t>1948890</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2053688</t>
+          <t>2058499</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6292,12 +6292,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>87,23%</t>
+          <t>87,33%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6312,12 +6312,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3915270</t>
+          <t>3919495</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4046960</t>
+          <t>4041508</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6327,12 +6327,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,28%</t>
         </is>
       </c>
     </row>
@@ -9702,12 +9702,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3888</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10557</t>
+          <t>10772</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -9717,12 +9717,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -9737,12 +9737,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12541</t>
+          <t>12427</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22826</t>
+          <t>22144</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -9772,12 +9772,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>17927</t>
+          <t>18528</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>30090</t>
+          <t>30784</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -9787,12 +9787,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -9815,12 +9815,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>54116</t>
+          <t>53901</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60785</t>
+          <t>60826</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -9830,12 +9830,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,68%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -9850,12 +9850,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>38714</t>
+          <t>39396</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>48999</t>
+          <t>49113</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -9865,12 +9865,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>62,91%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,62%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -9885,12 +9885,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>96124</t>
+          <t>95430</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>108287</t>
+          <t>107686</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -9900,12 +9900,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,8%</t>
+          <t>85,32%</t>
         </is>
       </c>
     </row>
@@ -10045,12 +10045,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10536</t>
+          <t>10450</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20799</t>
+          <t>20844</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -10060,12 +10060,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -10080,12 +10080,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25690</t>
+          <t>25545</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40864</t>
+          <t>40070</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10095,12 +10095,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,14%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>32,04%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10115,12 +10115,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>38408</t>
+          <t>38715</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57456</t>
+          <t>57333</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -10130,12 +10130,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -10158,12 +10158,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>102872</t>
+          <t>102827</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>113135</t>
+          <t>113221</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -10173,12 +10173,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -10193,12 +10193,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>86662</t>
+          <t>87456</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>101836</t>
+          <t>101981</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>67,96%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,86%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -10228,12 +10228,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>193741</t>
+          <t>193864</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>212789</t>
+          <t>212482</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,13%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,71%</t>
+          <t>84,59%</t>
         </is>
       </c>
     </row>
@@ -10388,12 +10388,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17470</t>
+          <t>17400</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30883</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -10403,12 +10403,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,16%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -10423,12 +10423,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22105</t>
+          <t>22235</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35090</t>
+          <t>35647</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -10438,12 +10438,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,82%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -10458,12 +10458,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43001</t>
+          <t>43296</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62035</t>
+          <t>62616</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -10473,12 +10473,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>22,91%</t>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -10501,12 +10501,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>108484</t>
+          <t>108771</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>121897</t>
+          <t>121967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -10516,12 +10516,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,46%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -10536,12 +10536,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>96341</t>
+          <t>95784</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109326</t>
+          <t>109196</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -10551,12 +10551,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,18%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -10571,12 +10571,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208762</t>
+          <t>208181</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>227796</t>
+          <t>227501</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -10586,12 +10586,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>77,09%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>84,12%</t>
+          <t>84,01%</t>
         </is>
       </c>
     </row>
@@ -10731,12 +10731,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15512</t>
+          <t>14963</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27036</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -10746,12 +10746,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -10766,12 +10766,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26189</t>
+          <t>25971</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41085</t>
+          <t>41535</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -10781,12 +10781,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,91%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,37%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -10801,12 +10801,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>44600</t>
+          <t>44797</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>64636</t>
+          <t>64350</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -10816,12 +10816,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -10844,12 +10844,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90615</t>
+          <t>90457</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>102139</t>
+          <t>102688</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -10859,12 +10859,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>77,02%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>86,82%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10879,12 +10879,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>78447</t>
+          <t>77997</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>93343</t>
+          <t>93561</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -10894,12 +10894,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>65,63%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -10914,12 +10914,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>172547</t>
+          <t>172833</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>192583</t>
+          <t>192386</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -10929,12 +10929,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>72,75%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,2%</t>
+          <t>81,11%</t>
         </is>
       </c>
     </row>
@@ -11074,12 +11074,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8601</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17575</t>
+          <t>17470</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -11089,12 +11089,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -11109,12 +11109,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>28314</t>
+          <t>27946</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>42532</t>
+          <t>43017</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -11124,12 +11124,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,44%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -11144,12 +11144,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>38945</t>
+          <t>38583</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>57606</t>
+          <t>58032</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -11159,12 +11159,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,21%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80438</t>
+          <t>80543</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89412</t>
+          <t>89975</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -11202,12 +11202,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -11222,12 +11222,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>73328</t>
+          <t>72843</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>87546</t>
+          <t>87914</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -11237,12 +11237,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>63,29%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,56%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -11257,12 +11257,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>156268</t>
+          <t>155842</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>174929</t>
+          <t>175291</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -11272,12 +11272,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>73,07%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,79%</t>
+          <t>81,96%</t>
         </is>
       </c>
     </row>
@@ -11417,12 +11417,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7986</t>
+          <t>8275</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19363</t>
+          <t>18832</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>11,62%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -11452,12 +11452,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17953</t>
+          <t>17809</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>32555</t>
+          <t>33087</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -11467,12 +11467,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>20,32%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -11487,12 +11487,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>28927</t>
+          <t>28917</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>46330</t>
+          <t>47160</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -11502,12 +11502,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>30,03%</t>
         </is>
       </c>
     </row>
@@ -11530,12 +11530,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>49336</t>
+          <t>49867</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>60713</t>
+          <t>60424</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -11545,12 +11545,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>71,81%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>88,38%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -11565,12 +11565,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>55805</t>
+          <t>55273</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>70407</t>
+          <t>70551</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -11580,12 +11580,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>63,16%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -11600,12 +11600,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>110728</t>
+          <t>109898</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>128131</t>
+          <t>128141</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -11615,12 +11615,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>70,5%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>81,59%</t>
         </is>
       </c>
     </row>
@@ -11760,12 +11760,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10059</t>
+          <t>10101</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20305</t>
+          <t>21066</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -11775,12 +11775,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -11795,12 +11795,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36128</t>
+          <t>36377</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52079</t>
+          <t>52712</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -11810,12 +11810,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -11830,12 +11830,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>49027</t>
+          <t>50121</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>68072</t>
+          <t>69710</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -11845,12 +11845,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>37,2%</t>
+          <t>38,1%</t>
         </is>
       </c>
     </row>
@@ -11873,12 +11873,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>48701</t>
+          <t>47940</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>58947</t>
+          <t>58905</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -11888,12 +11888,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>70,58%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>85,42%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -11908,12 +11908,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>61881</t>
+          <t>61248</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>77832</t>
+          <t>77583</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -11923,12 +11923,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>68,3%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -11943,12 +11943,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>114894</t>
+          <t>113256</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>133939</t>
+          <t>132845</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -11958,12 +11958,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>62,8%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>73,2%</t>
+          <t>72,61%</t>
         </is>
       </c>
     </row>
@@ -12103,12 +12103,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>92362</t>
+          <t>92709</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>119115</t>
+          <t>122105</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -12118,12 +12118,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,56%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -12138,12 +12138,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>197140</t>
+          <t>195926</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>231501</t>
+          <t>232223</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -12153,12 +12153,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -12173,12 +12173,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>296477</t>
+          <t>298145</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>343978</t>
+          <t>343915</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -12188,12 +12188,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>20,6%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,9%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -12216,12 +12216,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>561965</t>
+          <t>558975</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>588718</t>
+          <t>588371</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -12231,12 +12231,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>86,44%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -12251,12 +12251,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>526708</t>
+          <t>525986</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>561069</t>
+          <t>562283</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -12266,12 +12266,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -12286,12 +12286,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1095311</t>
+          <t>1095374</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1142812</t>
+          <t>1141144</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -12301,12 +12301,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>79,29%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
+++ b/data/trans_orig/VUL_MENTALCOM-Edad-trans_orig.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Andalucia" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Barcelona" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -731,37 +731,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2110</t>
+          <t>7347</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>878</t>
+          <t>1709</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4139</t>
+          <t>20659</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>8,56%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,67 +771,67 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>14541</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>6006</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2285</t>
+          <t>27517</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,7%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>21888</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>1796</t>
+          <t>11233</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>5376</t>
+          <t>40202</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>8,72%</t>
         </is>
       </c>
     </row>
@@ -844,107 +844,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>74624</t>
+          <t>233918</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>72595</t>
+          <t>220606</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75856</t>
+          <t>239556</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>97,25%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>94,61%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>98,86%</t>
+          <t>99,29%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>341</t>
+          <t>111</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>65117</t>
+          <t>205114</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>63957</t>
+          <t>192138</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65781</t>
+          <t>213649</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>99,3%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>202</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>139740</t>
+          <t>439032</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>137600</t>
+          <t>420718</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>141180</t>
+          <t>449687</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>95,25%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>96,24%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>98,74%</t>
+          <t>97,56%</t>
         </is>
       </c>
     </row>
@@ -957,22 +957,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>94</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>76734</t>
+          <t>241265</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -992,22 +992,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>66242</t>
+          <t>219655</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1027,22 +1027,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>723</t>
+          <t>212</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>142976</t>
+          <t>460920</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1074,107 +1074,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1215</t>
+          <t>6267</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>1676</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>15048</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1881</t>
+          <t>22649</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1046</t>
+          <t>13824</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>34377</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,72%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>4,88%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>23</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3096</t>
+          <t>28915</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>18837</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>43143</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -1187,107 +1187,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>149</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73273</t>
+          <t>255707</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72026</t>
+          <t>246926</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73909</t>
+          <t>260298</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,37%</t>
+          <t>97,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>96,69%</t>
+          <t>94,26%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,22%</t>
+          <t>99,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>230</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>67260</t>
+          <t>260804</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>65746</t>
+          <t>249076</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>68095</t>
+          <t>269629</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>97,28%</t>
+          <t>92,01%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>87,87%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,49%</t>
+          <t>95,12%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>747</t>
+          <t>379</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>140533</t>
+          <t>516511</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>138838</t>
+          <t>502283</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>141706</t>
+          <t>526589</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>97,84%</t>
+          <t>94,7%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>96,66%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>98,66%</t>
+          <t>96,55%</t>
         </is>
       </c>
     </row>
@@ -1300,22 +1300,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>74488</t>
+          <t>261974</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1335,22 +1335,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>249</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>69141</t>
+          <t>283453</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1370,22 +1370,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>767</t>
+          <t>402</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>143629</t>
+          <t>545426</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1417,107 +1417,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2054</t>
+          <t>18270</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1097</t>
+          <t>10849</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>29633</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>8,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>35</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4361</t>
+          <t>26790</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2888</t>
+          <t>18706</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>34810</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>45060</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>33614</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>8813</t>
+          <t>58621</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>7,91%</t>
         </is>
       </c>
     </row>
@@ -1530,107 +1530,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>298</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>102125</t>
+          <t>350048</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>100477</t>
+          <t>338685</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>103082</t>
+          <t>357469</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,03%</t>
+          <t>95,04%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,45%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,95%</t>
+          <t>97,05%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>457</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>106679</t>
+          <t>345827</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>104652</t>
+          <t>337807</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>108152</t>
+          <t>353911</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>92,81%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>90,66%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>94,98%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>755</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>208804</t>
+          <t>695875</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>206406</t>
+          <t>682314</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>210724</t>
+          <t>707321</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>97,02%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>95,91%</t>
+          <t>92,09%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>95,46%</t>
         </is>
       </c>
     </row>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>569</t>
+          <t>313</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>104179</t>
+          <t>368318</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>492</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>111040</t>
+          <t>372617</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1713,22 +1713,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1151</t>
+          <t>805</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>215219</t>
+          <t>740935</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1760,107 +1760,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5040</t>
+          <t>37706</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>27092</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6996</t>
+          <t>51857</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>12,23%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6792</t>
+          <t>57544</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5011</t>
+          <t>47595</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>9304</t>
+          <t>69767</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>15,81%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>118</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>11832</t>
+          <t>95250</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>9289</t>
+          <t>78897</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>15054</t>
+          <t>112553</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,07%</t>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -1873,107 +1873,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>357</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>139378</t>
+          <t>386235</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>137422</t>
+          <t>372084</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>141094</t>
+          <t>396849</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>91,11%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>87,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>97,7%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>771</t>
+          <t>575</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>145664</t>
+          <t>383748</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>143152</t>
+          <t>371525</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>147445</t>
+          <t>393697</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>95,54%</t>
+          <t>86,96%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>84,19%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>89,21%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>1542</t>
+          <t>932</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>285042</t>
+          <t>769984</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>281820</t>
+          <t>752681</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>287585</t>
+          <t>786337</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>96,01%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>86,99%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>96,87%</t>
+          <t>90,88%</t>
         </is>
       </c>
     </row>
@@ -1986,22 +1986,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>799</t>
+          <t>390</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>144418</t>
+          <t>423941</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,22 +2021,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>812</t>
+          <t>660</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>152456</t>
+          <t>441292</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,22 +2056,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1611</t>
+          <t>1050</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>296874</t>
+          <t>865234</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,107 +2103,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8407</t>
+          <t>33920</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>6330</t>
+          <t>24546</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11794</t>
+          <t>45760</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>102</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11854</t>
+          <t>66379</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>9203</t>
+          <t>54563</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>15330</t>
+          <t>78896</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,05%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,08%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>139</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>20261</t>
+          <t>100299</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>16607</t>
+          <t>85787</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>24412</t>
+          <t>118457</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>13,79%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>11,79%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>8,68%</t>
+          <t>16,28%</t>
         </is>
       </c>
     </row>
@@ -2216,107 +2216,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>360</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>120858</t>
+          <t>333199</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>117471</t>
+          <t>321359</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>122935</t>
+          <t>342573</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,5%</t>
+          <t>90,76%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>87,54%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>95,1%</t>
+          <t>93,31%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>464</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>140168</t>
+          <t>293987</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>136692</t>
+          <t>281470</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>142819</t>
+          <t>305803</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>81,58%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>93,95%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>824</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>261026</t>
+          <t>627186</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>256875</t>
+          <t>609028</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>264680</t>
+          <t>641698</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>86,21%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>83,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>88,21%</t>
         </is>
       </c>
     </row>
@@ -2329,22 +2329,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>731</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>129265</t>
+          <t>367119</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2364,22 +2364,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>857</t>
+          <t>566</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>152022</t>
+          <t>360366</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2399,22 +2399,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>963</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>281287</t>
+          <t>727485</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2446,107 +2446,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4380</t>
+          <t>8314</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2849</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6664</t>
+          <t>13818</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9909</t>
+          <t>43052</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>7484</t>
+          <t>34819</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>12888</t>
+          <t>52879</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,55%</t>
+          <t>15,94%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>19,58%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>86</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>14289</t>
+          <t>51366</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>11512</t>
+          <t>41503</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>17860</t>
+          <t>63103</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>8,29%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>8,11%</t>
+          <t>12,61%</t>
         </is>
       </c>
     </row>
@@ -2559,107 +2559,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>618</t>
+          <t>304</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>99959</t>
+          <t>222090</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>97675</t>
+          <t>216586</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>101490</t>
+          <t>226266</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>95,8%</t>
+          <t>96,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,61%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,27%</t>
+          <t>98,2%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>646</t>
+          <t>408</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>106013</t>
+          <t>226980</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>103034</t>
+          <t>217153</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>108438</t>
+          <t>235213</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,45%</t>
+          <t>84,06%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>88,88%</t>
+          <t>80,42%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,54%</t>
+          <t>87,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>1264</t>
+          <t>712</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>205972</t>
+          <t>449070</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>202401</t>
+          <t>437333</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>208749</t>
+          <t>458933</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>89,74%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>87,39%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>94,77%</t>
+          <t>91,71%</t>
         </is>
       </c>
     </row>
@@ -2672,22 +2672,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>645</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>104339</t>
+          <t>230404</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2707,22 +2707,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>482</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>115922</t>
+          <t>270032</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2742,22 +2742,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>1349</t>
+          <t>798</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>220261</t>
+          <t>500436</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2789,107 +2789,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>3736</t>
+          <t>15535</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2328</t>
+          <t>9733</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>5492</t>
+          <t>22597</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,16%</t>
+          <t>13,65%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>18056</t>
+          <t>42762</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>15165</t>
+          <t>33992</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>21893</t>
+          <t>53804</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>16,59%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>13,19%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>90</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>21792</t>
+          <t>58297</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>18266</t>
+          <t>47278</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>25522</t>
+          <t>70453</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>9,86%</t>
+          <t>13,77%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>8,27%</t>
+          <t>11,17%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>16,64%</t>
         </is>
       </c>
     </row>
@@ -2902,107 +2902,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>85350</t>
+          <t>150046</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>83594</t>
+          <t>142984</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>86758</t>
+          <t>155848</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>90,62%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>93,84%</t>
+          <t>86,35%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>97,39%</t>
+          <t>94,12%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>375</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>113771</t>
+          <t>215045</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>109934</t>
+          <t>204003</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>116662</t>
+          <t>223815</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>86,3%</t>
+          <t>83,41%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>83,39%</t>
+          <t>79,13%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>86,81%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1218</t>
+          <t>584</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>199121</t>
+          <t>365090</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>195391</t>
+          <t>352934</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>202647</t>
+          <t>376109</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>86,23%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>83,36%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>88,83%</t>
         </is>
       </c>
     </row>
@@ -3015,22 +3015,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>553</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>89086</t>
+          <t>165581</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3050,22 +3050,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>801</t>
+          <t>443</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>131827</t>
+          <t>257807</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3085,22 +3085,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>1354</t>
+          <t>674</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>220913</t>
+          <t>423387</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3132,107 +3132,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>26942</t>
+          <t>127359</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>22825</t>
+          <t>106762</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31421</t>
+          <t>150989</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>390</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>53978</t>
+          <t>273717</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>48042</t>
+          <t>246804</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>60335</t>
+          <t>300665</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>7,55%</t>
+          <t>13,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>516</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>80920</t>
+          <t>401076</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>73612</t>
+          <t>366648</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>88659</t>
+          <t>438984</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>10,3%</t>
         </is>
       </c>
     </row>
@@ -3245,107 +3245,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>1768</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>695568</t>
+          <t>1931244</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>691089</t>
+          <t>1907614</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>699685</t>
+          <t>1951841</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>93,81%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>95,65%</t>
+          <t>92,67%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>4156</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>744672</t>
+          <t>1931504</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>738315</t>
+          <t>1904556</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>750608</t>
+          <t>1958417</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>87,59%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>92,45%</t>
+          <t>86,37%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>88,81%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>8069</t>
+          <t>4388</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1440240</t>
+          <t>3862748</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1432501</t>
+          <t>3824840</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1447548</t>
+          <t>3897176</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>94,68%</t>
+          <t>90,59%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>94,17%</t>
+          <t>89,7%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>95,16%</t>
+          <t>91,4%</t>
         </is>
       </c>
     </row>
@@ -3358,22 +3358,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1894</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058603</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058603</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>722510</t>
+          <t>2058603</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3393,22 +3393,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>4476</t>
+          <t>3010</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205221</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205221</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>798650</t>
+          <t>2205221</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3428,22 +3428,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>4904</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4263824</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4263824</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1521160</t>
+          <t>4263824</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3533,7 +3533,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Andalucia (tasa de respuesta: 99,9%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3718,107 +3718,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7416</t>
+          <t>6562</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>3847</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21397</t>
+          <t>10772</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,14%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>5,95%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>16,66%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14080</t>
+          <t>17371</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5989</t>
+          <t>12427</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>26985</t>
+          <t>22144</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>20,19%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>35,98%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>56</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>21496</t>
+          <t>23934</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>10833</t>
+          <t>18528</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>40181</t>
+          <t>30784</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>24,39%</t>
         </is>
       </c>
     </row>
@@ -3831,107 +3831,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>147</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>228820</t>
+          <t>58111</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>214839</t>
+          <t>53901</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>234292</t>
+          <t>60826</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>96,86%</t>
+          <t>89,85%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>90,94%</t>
+          <t>83,34%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>99,18%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>119</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>170273</t>
+          <t>44169</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>157368</t>
+          <t>39396</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>178364</t>
+          <t>49113</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>71,77%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>64,02%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>96,75%</t>
+          <t>79,81%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>266</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>399093</t>
+          <t>102280</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>380408</t>
+          <t>95430</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>409756</t>
+          <t>107686</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>94,89%</t>
+          <t>81,04%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>90,45%</t>
+          <t>75,61%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>97,42%</t>
+          <t>85,32%</t>
         </is>
       </c>
     </row>
@@ -3944,22 +3944,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>163</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>236236</t>
+          <t>64673</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -3979,22 +3979,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>159</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>184353</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4014,22 +4014,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>322</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>420589</t>
+          <t>126214</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4061,107 +4061,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>14930</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>10450</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10209</t>
+          <t>20844</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>12,07%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21033</t>
+          <t>32394</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>8853</t>
+          <t>25545</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>34501</t>
+          <t>40070</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>20,03%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>23844</t>
+          <t>47324</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>12911</t>
+          <t>38715</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>36554</t>
+          <t>57333</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>15,41%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -4174,107 +4174,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>240</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>226557</t>
+          <t>108741</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>219159</t>
+          <t>102827</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>228880</t>
+          <t>113221</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>98,77%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,55%</t>
+          <t>83,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>99,79%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>208</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>293395</t>
+          <t>95132</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>279927</t>
+          <t>87456</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>305575</t>
+          <t>101981</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,31%</t>
+          <t>74,6%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>68,58%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,18%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>448</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>519952</t>
+          <t>203873</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>507242</t>
+          <t>193864</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>530885</t>
+          <t>212482</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>95,62%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>77,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>97,63%</t>
+          <t>84,59%</t>
         </is>
       </c>
     </row>
@@ -4287,22 +4287,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>272</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>229368</t>
+          <t>123671</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4322,22 +4322,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>285</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>127526</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>127526</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>314428</t>
+          <t>127526</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4357,22 +4357,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>557</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251197</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251197</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>543796</t>
+          <t>251197</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4404,107 +4404,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16726</t>
+          <t>23455</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9868</t>
+          <t>17400</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>27273</t>
+          <t>30596</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>16,83%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>12,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,78%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>74</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>23592</t>
+          <t>28564</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>16708</t>
+          <t>22235</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>31530</t>
+          <t>35647</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>9,8%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>133</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>40318</t>
+          <t>52019</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>29572</t>
+          <t>43296</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>52765</t>
+          <t>62616</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>19,21%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>15,99%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>23,12%</t>
         </is>
       </c>
     </row>
@@ -4517,107 +4517,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>257</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>294043</t>
+          <t>115912</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>283496</t>
+          <t>108771</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>300901</t>
+          <t>121967</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,62%</t>
+          <t>83,17%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,22%</t>
+          <t>78,05%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>96,82%</t>
+          <t>87,52%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>457</t>
+          <t>243</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>298250</t>
+          <t>102867</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>290312</t>
+          <t>95784</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>305134</t>
+          <t>109196</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>92,67%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>94,81%</t>
+          <t>83,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>500</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>592292</t>
+          <t>218778</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>579845</t>
+          <t>208181</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>603038</t>
+          <t>227501</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>93,63%</t>
+          <t>80,79%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>76,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>95,33%</t>
+          <t>84,01%</t>
         </is>
       </c>
     </row>
@@ -4630,22 +4630,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>316</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>310769</t>
+          <t>139367</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -4665,22 +4665,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>492</t>
+          <t>317</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>321842</t>
+          <t>131431</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -4700,22 +4700,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>805</t>
+          <t>633</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>632610</t>
+          <t>270797</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -4747,107 +4747,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32667</t>
+          <t>20749</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11136</t>
+          <t>14963</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58187</t>
+          <t>27194</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>17,64%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,28%</t>
+          <t>23,11%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51508</t>
+          <t>32921</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>41898</t>
+          <t>25971</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>63196</t>
+          <t>41535</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>10,35%</t>
+          <t>21,73%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>34,75%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>84176</t>
+          <t>53670</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>43099</t>
+          <t>44797</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>118220</t>
+          <t>64350</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -4860,107 +4860,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>233</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>594497</t>
+          <t>96902</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>568977</t>
+          <t>90457</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>616028</t>
+          <t>102688</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>94,79%</t>
+          <t>82,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>90,72%</t>
+          <t>76,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>98,22%</t>
+          <t>87,28%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>575</t>
+          <t>225</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>353294</t>
+          <t>86611</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>341606</t>
+          <t>77997</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>362904</t>
+          <t>93561</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>72,46%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>84,39%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>89,65%</t>
+          <t>78,27%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>932</t>
+          <t>458</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>947790</t>
+          <t>183513</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>913746</t>
+          <t>172833</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>988867</t>
+          <t>192386</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>77,37%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>88,54%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>81,11%</t>
         </is>
       </c>
     </row>
@@ -4973,22 +4973,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>285</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>627164</t>
+          <t>117651</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5008,22 +5008,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>297</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>404802</t>
+          <t>119532</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5043,22 +5043,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1050</t>
+          <t>582</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>1031966</t>
+          <t>237183</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5090,107 +5090,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>33273</t>
+          <t>12504</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>24193</t>
+          <t>8038</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>45212</t>
+          <t>17470</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>12,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>17,82%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>58711</t>
+          <t>34573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>48602</t>
+          <t>27946</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>70153</t>
+          <t>43017</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>29,84%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>24,12%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>114</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>91984</t>
+          <t>47077</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>78272</t>
+          <t>38583</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>108552</t>
+          <t>58032</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>14,0%</t>
+          <t>22,01%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>16,52%</t>
+          <t>27,13%</t>
         </is>
       </c>
     </row>
@@ -5203,107 +5203,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>198</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>305025</t>
+          <t>85509</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>293086</t>
+          <t>80543</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>314105</t>
+          <t>89975</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>87,24%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>86,64%</t>
+          <t>82,18%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,85%</t>
+          <t>91,8%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>195</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>260183</t>
+          <t>81287</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>248741</t>
+          <t>72843</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>270292</t>
+          <t>87914</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>78,0%</t>
+          <t>62,87%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>84,76%</t>
+          <t>75,88%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>824</t>
+          <t>393</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>565208</t>
+          <t>166797</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>548640</t>
+          <t>155842</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>578920</t>
+          <t>175291</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>86,0%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>83,48%</t>
+          <t>72,87%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>88,09%</t>
+          <t>81,96%</t>
         </is>
       </c>
     </row>
@@ -5316,22 +5316,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>231</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>338298</t>
+          <t>98013</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5351,22 +5351,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>276</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>318894</t>
+          <t>115860</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5386,22 +5386,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>963</t>
+          <t>507</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>657192</t>
+          <t>213874</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5433,107 +5433,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7853</t>
+          <t>12621</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3886</t>
+          <t>8275</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13157</t>
+          <t>18832</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>12,05%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>54</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>39202</t>
+          <t>24560</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>8578</t>
+          <t>17809</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>75762</t>
+          <t>33087</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>27,8%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>37,45%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>82</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>47055</t>
+          <t>37180</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>17623</t>
+          <t>28917</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>73151</t>
+          <t>47160</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>23,67%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>30,03%</t>
         </is>
       </c>
     </row>
@@ -5546,107 +5546,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>150</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>199513</t>
+          <t>56078</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>194209</t>
+          <t>49867</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>203480</t>
+          <t>60424</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>81,63%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>93,66%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>98,13%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>174</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>413440</t>
+          <t>63800</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>376880</t>
+          <t>55273</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>444064</t>
+          <t>70551</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>72,2%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>62,55%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>79,84%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>324</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>612953</t>
+          <t>119878</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>586857</t>
+          <t>109898</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>642385</t>
+          <t>128141</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>76,33%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>69,97%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>81,59%</t>
         </is>
       </c>
     </row>
@@ -5659,22 +5659,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>178</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>207366</t>
+          <t>68699</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -5694,22 +5694,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>228</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>452642</t>
+          <t>88360</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -5729,22 +5729,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>798</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157058</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157058</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>660008</t>
+          <t>157058</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -5776,107 +5776,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>40</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13900</t>
+          <t>14741</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8961</t>
+          <t>10101</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>20697</t>
+          <t>21066</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>21,36%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>14,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>13,64%</t>
+          <t>30,53%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>117</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>37587</t>
+          <t>43935</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>29934</t>
+          <t>36377</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>47248</t>
+          <t>52712</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>16,01%</t>
+          <t>38,55%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>46,26%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>157</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>51487</t>
+          <t>58676</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>42097</t>
+          <t>50121</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>62032</t>
+          <t>69710</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>27,39%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>16,05%</t>
+          <t>38,1%</t>
         </is>
       </c>
     </row>
@@ -5889,107 +5889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>153</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>137875</t>
+          <t>54265</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>131078</t>
+          <t>47940</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>142814</t>
+          <t>58905</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>78,64%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>86,36%</t>
+          <t>69,47%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>94,1%</t>
+          <t>85,36%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>192</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>197123</t>
+          <t>70025</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>187462</t>
+          <t>61248</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>204776</t>
+          <t>77583</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>83,99%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>79,87%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>87,25%</t>
+          <t>68,08%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>584</t>
+          <t>345</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>334998</t>
+          <t>124290</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>324453</t>
+          <t>113256</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>344388</t>
+          <t>132845</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>86,68%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>83,95%</t>
+          <t>61,9%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>72,61%</t>
         </is>
       </c>
     </row>
@@ -6002,22 +6002,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>193</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>151775</t>
+          <t>69006</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6037,22 +6037,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>309</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>113960</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>113960</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>234710</t>
+          <t>113960</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6072,22 +6072,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>502</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>182966</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>182966</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>386485</t>
+          <t>182966</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6119,107 +6119,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>260</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>114648</t>
+          <t>105562</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>76267</t>
+          <t>92709</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>142202</t>
+          <t>122105</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,77%</t>
+          <t>17,93%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>515</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>245713</t>
+          <t>214319</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>173172</t>
+          <t>195926</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>282781</t>
+          <t>232223</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>11,01%</t>
+          <t>28,27%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,67%</t>
+          <t>30,63%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>775</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>360361</t>
+          <t>319881</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>291138</t>
+          <t>298145</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>413151</t>
+          <t>343915</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>22,22%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>20,71%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>23,89%</t>
         </is>
       </c>
     </row>
@@ -6232,107 +6232,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>1986327</t>
+          <t>575518</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1958773</t>
+          <t>558975</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2024708</t>
+          <t>588371</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>94,54%</t>
+          <t>84,5%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>82,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>1356</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1985958</t>
+          <t>543890</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>1948890</t>
+          <t>525986</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>2058499</t>
+          <t>562283</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>88,99%</t>
+          <t>71,73%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>69,37%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>74,16%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>4388</t>
+          <t>2734</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>3972285</t>
+          <t>1119408</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3919495</t>
+          <t>1095374</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>4041508</t>
+          <t>1141144</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>77,78%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>90,46%</t>
+          <t>76,11%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>93,28%</t>
+          <t>79,29%</t>
         </is>
       </c>
     </row>
@@ -6345,22 +6345,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1894</t>
+          <t>1638</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>2100975</t>
+          <t>681080</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>2100975</t>
+          <t>681080</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>2100975</t>
+          <t>681080</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6380,22 +6380,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>1871</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>2231671</t>
+          <t>758209</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>2231671</t>
+          <t>758209</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>2231671</t>
+          <t>758209</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6415,22 +6415,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>4904</t>
+          <t>3509</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>4332646</t>
+          <t>1439289</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>4332646</t>
+          <t>1439289</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>4332646</t>
+          <t>1439289</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -9507,7 +9507,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Enfermedad mental común (ansiedad/depresión) en Barcelona (tasa de respuesta: 99,91%)</t>
+          <t>Enfermedad mental común (ansiedad/depresión) en País Vasco (tasa de respuesta: 99,34%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -9692,107 +9692,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6562</t>
+          <t>2110</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3847</t>
+          <t>878</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10772</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>10,15%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,66%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>17371</t>
+          <t>1125</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12427</t>
+          <t>461</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>22144</t>
+          <t>2285</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>28,23%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>23934</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>18528</t>
+          <t>1796</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>30784</t>
+          <t>5376</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>18,96%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>24,39%</t>
+          <t>3,76%</t>
         </is>
       </c>
     </row>
@@ -9805,107 +9805,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>367</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58111</t>
+          <t>74624</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53901</t>
+          <t>72595</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>60826</t>
+          <t>75856</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>89,85%</t>
+          <t>97,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>83,34%</t>
+          <t>94,61%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>94,05%</t>
+          <t>98,86%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>341</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44169</t>
+          <t>65117</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39396</t>
+          <t>63957</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>49113</t>
+          <t>65781</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>71,77%</t>
+          <t>98,3%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>64,02%</t>
+          <t>96,55%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>79,81%</t>
+          <t>99,3%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>708</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>102280</t>
+          <t>139740</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>95430</t>
+          <t>137600</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>107686</t>
+          <t>141180</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>97,74%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>75,61%</t>
+          <t>96,24%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>98,74%</t>
         </is>
       </c>
     </row>
@@ -9918,22 +9918,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>375</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>64673</t>
+          <t>76734</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -9953,22 +9953,22 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>348</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>66242</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -9988,22 +9988,22 @@
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>723</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>126214</t>
+          <t>142976</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -10035,107 +10035,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14930</t>
+          <t>1215</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10450</t>
+          <t>579</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20844</t>
+          <t>2462</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>32394</t>
+          <t>1881</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25545</t>
+          <t>1046</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40070</t>
+          <t>3395</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,03%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,42%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>47324</t>
+          <t>3096</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>38715</t>
+          <t>1923</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>57333</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>15,41%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>3,34%</t>
         </is>
       </c>
     </row>
@@ -10148,107 +10148,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>387</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>108741</t>
+          <t>73273</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>102827</t>
+          <t>72026</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>113221</t>
+          <t>73909</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>87,93%</t>
+          <t>98,37%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>83,15%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>91,55%</t>
+          <t>99,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>360</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>95132</t>
+          <t>67260</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>87456</t>
+          <t>65746</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>101981</t>
+          <t>68095</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>74,6%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>68,58%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>98,49%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>747</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>203873</t>
+          <t>140533</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>193864</t>
+          <t>138838</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>212482</t>
+          <t>141706</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>77,18%</t>
+          <t>96,66%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>84,59%</t>
+          <t>98,66%</t>
         </is>
       </c>
     </row>
@@ -10261,22 +10261,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>395</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>123671</t>
+          <t>74488</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -10296,22 +10296,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>372</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>127526</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>127526</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>127526</t>
+          <t>69141</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -10331,22 +10331,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>767</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>251197</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>251197</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>251197</t>
+          <t>143629</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -10378,107 +10378,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>23455</t>
+          <t>2054</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>17400</t>
+          <t>1097</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30596</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,83%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,48%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>28564</t>
+          <t>4361</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>22235</t>
+          <t>2888</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>35647</t>
+          <t>6388</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>38</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>52019</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>43296</t>
+          <t>4495</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>62616</t>
+          <t>8813</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>19,21%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>15,99%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>23,12%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -10491,107 +10491,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>558</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>115912</t>
+          <t>102125</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>108771</t>
+          <t>100477</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>121967</t>
+          <t>103082</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>83,17%</t>
+          <t>98,03%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,05%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>87,52%</t>
+          <t>98,95%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>555</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>102867</t>
+          <t>106679</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95784</t>
+          <t>104652</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>109196</t>
+          <t>108152</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>96,07%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>72,88%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>83,08%</t>
+          <t>97,4%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>500</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>218778</t>
+          <t>208804</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>208181</t>
+          <t>206406</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>227501</t>
+          <t>210724</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>80,79%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>76,88%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>97,91%</t>
         </is>
       </c>
     </row>
@@ -10604,22 +10604,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>316</t>
+          <t>569</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>139367</t>
+          <t>104179</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -10639,22 +10639,22 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>582</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>131431</t>
+          <t>111040</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -10674,22 +10674,22 @@
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>633</t>
+          <t>1151</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>270797</t>
+          <t>215219</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -10721,107 +10721,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20749</t>
+          <t>5040</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14963</t>
+          <t>3324</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>27194</t>
+          <t>6996</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,64%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>23,11%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32921</t>
+          <t>6792</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>25971</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>41535</t>
+          <t>9304</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>4,46%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>21,73%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>69</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>53670</t>
+          <t>11832</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>44797</t>
+          <t>9289</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>64350</t>
+          <t>15054</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>5,07%</t>
         </is>
       </c>
     </row>
@@ -10834,107 +10834,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>771</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96902</t>
+          <t>139378</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>90457</t>
+          <t>137422</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>102688</t>
+          <t>141094</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>82,36%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>76,89%</t>
+          <t>95,16%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>87,28%</t>
+          <t>97,7%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>771</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>86611</t>
+          <t>145664</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>77997</t>
+          <t>143152</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>93561</t>
+          <t>147445</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>72,46%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>65,25%</t>
+          <t>93,9%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>78,27%</t>
+          <t>96,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>1542</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>183513</t>
+          <t>285042</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>172833</t>
+          <t>281820</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>192386</t>
+          <t>287585</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>77,37%</t>
+          <t>96,01%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>81,11%</t>
+          <t>96,87%</t>
         </is>
       </c>
     </row>
@@ -10947,22 +10947,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>799</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>117651</t>
+          <t>144418</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -10982,22 +10982,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>812</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>119532</t>
+          <t>152456</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -11017,22 +11017,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>582</t>
+          <t>1611</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>237183</t>
+          <t>296874</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -11064,107 +11064,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>12504</t>
+          <t>8407</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8038</t>
+          <t>6330</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17470</t>
+          <t>11794</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34573</t>
+          <t>11854</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>27946</t>
+          <t>9203</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>43017</t>
+          <t>15330</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,84%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>37,13%</t>
+          <t>10,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>111</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>47077</t>
+          <t>20261</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>38583</t>
+          <t>16607</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>58032</t>
+          <t>24412</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>22,01%</t>
+          <t>7,2%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -11177,107 +11177,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>685</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>85509</t>
+          <t>120858</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>80543</t>
+          <t>117471</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>89975</t>
+          <t>122935</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>87,24%</t>
+          <t>93,5%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>82,18%</t>
+          <t>90,88%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>91,8%</t>
+          <t>95,1%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>792</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>81287</t>
+          <t>140168</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>72843</t>
+          <t>136692</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>87914</t>
+          <t>142819</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>62,87%</t>
+          <t>89,92%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>75,88%</t>
+          <t>93,95%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>1477</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>166797</t>
+          <t>261026</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>155842</t>
+          <t>256875</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>175291</t>
+          <t>264680</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>77,99%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>72,87%</t>
+          <t>91,32%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>81,96%</t>
+          <t>94,1%</t>
         </is>
       </c>
     </row>
@@ -11290,22 +11290,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>731</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98013</t>
+          <t>129265</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -11325,22 +11325,22 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>857</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>115860</t>
+          <t>152022</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -11360,22 +11360,22 @@
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>507</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>213874</t>
+          <t>281287</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -11407,107 +11407,107 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>12621</t>
+          <t>4380</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8275</t>
+          <t>2849</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18832</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>18,37%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>27,41%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>24560</t>
+          <t>9909</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>17809</t>
+          <t>7484</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33087</t>
+          <t>12888</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>27,8%</t>
+          <t>8,55%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>20,16%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>85</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>37180</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>28917</t>
+          <t>11512</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>47160</t>
+          <t>17860</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>23,67%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>18,41%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>30,03%</t>
+          <t>8,11%</t>
         </is>
       </c>
     </row>
@@ -11520,107 +11520,107 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>618</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>56078</t>
+          <t>99959</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>49867</t>
+          <t>97675</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>60424</t>
+          <t>101490</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>87,95%</t>
+          <t>97,27%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>646</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>63800</t>
+          <t>106013</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>55273</t>
+          <t>103034</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>70551</t>
+          <t>108438</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>72,2%</t>
+          <t>91,45%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>62,55%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>79,84%</t>
+          <t>93,54%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>1264</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>119878</t>
+          <t>205972</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>109898</t>
+          <t>202401</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>128141</t>
+          <t>208749</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>76,33%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>69,97%</t>
+          <t>91,89%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>81,59%</t>
+          <t>94,77%</t>
         </is>
       </c>
     </row>
@@ -11633,22 +11633,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>645</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>68699</t>
+          <t>104339</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -11668,22 +11668,22 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>704</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>88360</t>
+          <t>115922</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -11703,22 +11703,22 @@
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>1349</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>157058</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>157058</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>157058</t>
+          <t>220261</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -11750,107 +11750,107 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>26</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>14741</t>
+          <t>3736</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>10101</t>
+          <t>2328</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>21066</t>
+          <t>5492</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>6,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>110</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43935</t>
+          <t>18056</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>36377</t>
+          <t>15165</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>52712</t>
+          <t>21893</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>38,55%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>31,92%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>46,26%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>58676</t>
+          <t>21792</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>50121</t>
+          <t>18266</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>69710</t>
+          <t>25522</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>9,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>38,1%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -11863,107 +11863,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>527</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>54265</t>
+          <t>85350</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>47940</t>
+          <t>83594</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>58905</t>
+          <t>86758</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>78,64%</t>
+          <t>95,81%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>69,47%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>85,36%</t>
+          <t>97,39%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>691</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>70025</t>
+          <t>113771</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>61248</t>
+          <t>109934</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>77583</t>
+          <t>116662</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>61,45%</t>
+          <t>86,3%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>53,74%</t>
+          <t>83,39%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>68,08%</t>
+          <t>88,5%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>1218</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>124290</t>
+          <t>199121</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>113256</t>
+          <t>195391</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>132845</t>
+          <t>202647</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>67,93%</t>
+          <t>90,14%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>72,61%</t>
+          <t>91,73%</t>
         </is>
       </c>
     </row>
@@ -11976,22 +11976,22 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>553</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>69006</t>
+          <t>89086</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -12011,22 +12011,22 @@
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>801</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>113960</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>113960</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>113960</t>
+          <t>131827</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -12046,22 +12046,22 @@
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>502</t>
+          <t>1354</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>182966</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>182966</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>182966</t>
+          <t>220913</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -12093,107 +12093,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>154</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>105562</t>
+          <t>26942</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>92709</t>
+          <t>22825</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>122105</t>
+          <t>31421</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>15,5%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>320</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>214319</t>
+          <t>53978</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>195926</t>
+          <t>48042</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>232223</t>
+          <t>60335</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>28,27%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>25,84%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>775</t>
+          <t>474</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>319881</t>
+          <t>80920</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>298145</t>
+          <t>73612</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>343915</t>
+          <t>88659</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>20,71%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>23,89%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -12206,107 +12206,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>1378</t>
+          <t>3913</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>575518</t>
+          <t>695568</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>558975</t>
+          <t>691089</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>588371</t>
+          <t>699685</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>84,5%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>82,07%</t>
+          <t>95,65%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>1356</t>
+          <t>4156</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>543890</t>
+          <t>744672</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>525986</t>
+          <t>738315</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>562283</t>
+          <t>750608</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>71,73%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>69,37%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>74,16%</t>
+          <t>93,98%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>8069</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>1119408</t>
+          <t>1440240</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>1095374</t>
+          <t>1432501</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1141144</t>
+          <t>1447548</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>77,78%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>76,11%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>79,29%</t>
+          <t>95,16%</t>
         </is>
       </c>
     </row>
@@ -12319,22 +12319,22 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1638</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>681080</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>681080</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>681080</t>
+          <t>722510</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -12354,22 +12354,22 @@
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>4476</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>758209</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>758209</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>758209</t>
+          <t>798650</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -12389,22 +12389,22 @@
       </c>
       <c r="Q27" s="2" t="inlineStr">
         <is>
-          <t>3509</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>1439289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>1439289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1439289</t>
+          <t>1521160</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
